--- a/imageCreationExcel/back/106/106_1.xlsx
+++ b/imageCreationExcel/back/106/106_1.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9990585485523089</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.4894587100165371</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>18.84356903072426</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_P_contrast0.999_sharpness0.489_equalization18.844.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8715182403502838</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.548819806561788</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.10045379314495</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_P_contrast0.872_gamma0.549_equalization24.1.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.177021602033408</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9416353678099043</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5.67434148207349</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_C_contrast1.177_sharpness0.942_equalization5.674.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.185280803821867</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,22 +629,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8062441439137226</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8846828934648618</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_E_contrast1.185_gamma0.806_sharpness0.885.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.127362770892008</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7888437023031534</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>31.57032683872738</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_contrast1.127_gamma0.789_equalization31.57.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9569824608428684</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9207029221407012</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13.28340679025424</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_contrast0.957_gamma0.921_equalization13.283.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25.7998660654912</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.098849302705365</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.7126393438872428</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_brightness25.8_contrast1.099_gamma0.713.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8674243912651138</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7079625723324192</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.57925523085517</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_B_contrast0.867_gamma0.708_equalization15.579.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9355843376192367</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7072028466685657</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>23.29638500114921</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_S_contrast0.936_sharpness0.707_equalization23.296.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.36062733187727</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9124090917298744</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.073446756076684</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_brightness12.361_contrast0.912_gamma1.073.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,30 +915,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9935402191440539</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9042845463815636</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.226340390189635</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_7_contrast0.994_gamma0.904_sharpness0.226.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6912536638534197</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1895358383619549</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9.051895316779035</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_gamma0.691_sharpness0.19_equalization9.052.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9666984643440802</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7118388120814338</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.3588690234095899</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_2_contrast0.967_gamma0.712_sharpness0.359.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21.90089793742717</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8208188546678437</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5363979261735616</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_0_brightness21.901_contrast0.821_sharpness0.536.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12.87074795636954</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7855028659874872</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7866185007154969</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_P_brightness12.871_gamma0.786_sharpness0.787.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1125,15 +1125,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.039606817070645</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9967633053131066</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8490517035172591</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_3_brightness3.04_contrast0.997_sharpness0.849.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22.01695244138242</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8255588313068827</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8894042201732748</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_0_brightness22.017_gamma0.826_sharpness0.889.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9917871097179609</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.099609681423272</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.5264165103357696</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_7_contrast0.992_gamma1.1_sharpness0.526.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,15 +1251,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29.32480346695342</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.069325893057226</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5461705132523512</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_P_brightness29.325_contrast1.069_sharpness0.546.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19.29024761540891</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.163307553092524</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8197417316732082</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_E_brightness19.29_contrast1.163_sharpness0.82.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3530891840968298</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9500516163755511</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.8120942780066117</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_B_brightness0.353_contrast0.95_gamma0.812.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19.6443807096804</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8331850729305725</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.6202905820937743</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_brightness19.644_contrast0.833_gamma0.62.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9636696525157419</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.6166424648339439</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.4162980528528274</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_7_contrast0.964_gamma0.617_sharpness0.416.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.159922081134009</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.7698339159438095</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>25.07890861108621</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_S_contrast1.16_sharpness0.77_equalization25.079.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.057617404397856</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.5667011666853197</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>31.41817480040513</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_T_gamma1.058_sharpness0.567_equalization31.418.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,15 +1545,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18.76473456948459</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6845948695826243</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.4024721852088403</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_8_brightness18.765_gamma0.685_sharpness0.402.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22.90467794273511</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.195172284574928</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.6024290993322556</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_9_brightness22.905_contrast1.195_sharpness0.602.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,30 +1629,30 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9300346239027091</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.7188295016435797</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>24.37276326253504</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_E_contrast0.93_sharpness0.719_equalization24.373.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,30 +1671,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9129462941449944</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8142066061256763</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>21.2125761914477</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_0_contrast0.913_sharpness0.814_equalization21.213.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19.59001458425697</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.134357958080591</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.751343863086448</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_2_brightness19.59_contrast1.134_gamma0.751.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,24 +1746,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.05004992308125</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.307855644614693</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>28.99574072195272</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_S_gamma1.05_sharpness0.308_equalization28.996.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8667961717254192</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.02230131643827981</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>24.83570473776644</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_1_gamma0.867_sharpness0.022_equalization24.836.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5.755388642941749</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.024418876937771</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.1221732881642844</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_brightness5.755_contrast1.024_sharpness0.122.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9046638940350173</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7046397268814486</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>29.03745206542431</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_I_contrast0.905_gamma0.705_equalization29.037.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11.88471041070626</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9964964159559188</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.6361047371133588</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_brightness11.885_contrast0.996_gamma0.636.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>29.42071263557486</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8085408180217694</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.08806638322007</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_brightness29.421_contrast0.809_gamma1.088.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>15.37964412308517</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.140071407404835</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.079255517203552</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_S_brightness15.38_contrast1.14_gamma1.079.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.177621224109005</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5778888579770645</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.7874949690015738</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_contrast1.178_gamma0.578_sharpness0.787.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2087,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.884870886156683</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7873073310097563</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.7451968939440592</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_C_contrast0.885_gamma0.787_sharpness0.745.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.072829987130412</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5516585775146947</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.5735675768312266</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_B_contrast1.073_gamma0.552_sharpness0.574.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>22.41575216473537</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8410814910291093</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.2878620389056695</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_2_brightness22.416_contrast0.841_sharpness0.288.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>12.86929670343699</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,22 +2225,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9047846737565344</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.8463232747691858</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_I_brightness12.869_contrast0.905_gamma0.846.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17.81323935601172</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5818872311031521</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.2091453669624196</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_P_brightness17.813_gamma0.582_sharpness0.209.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15.25255330949919</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8229889539434641</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.9195177833072845</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_brightness15.253_contrast0.823_gamma0.92.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9.042374741276497</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9936231505578287</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.9251578688930395</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_brightness9.042_contrast0.994_gamma0.925.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,16 +2376,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.02498318184267</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.3526680114081147</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>5.090658530876881</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_7_contrast1.025_sharpness0.353_equalization5.091.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6.964885054693928</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.986881983203423</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.194200297699619</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_9_brightness6.965_gamma0.987_sharpness0.194.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,16 +2460,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4.070581562599243</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8507915476184674</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.7026594622841126</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_E_brightness4.071_gamma0.851_sharpness0.703.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
